--- a/output/fit_clients/fit_round_308.xlsx
+++ b/output/fit_clients/fit_round_308.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2006874153.592342</v>
+        <v>2370108382.010585</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1021486210517812</v>
+        <v>0.1009967622580982</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03152186674373605</v>
+        <v>0.03280737411680176</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1003437073.403226</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1727749127.051648</v>
+        <v>1963173205.779778</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1419907601023953</v>
+        <v>0.1588649280490782</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05046299619005433</v>
+        <v>0.03872983013963974</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>863874561.4231836</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5248375643.109922</v>
+        <v>5140560231.614796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.147380247002601</v>
+        <v>0.1261635566413657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03728623032562607</v>
+        <v>0.03417666386350419</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>111</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2624187924.182369</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3143681888.826842</v>
+        <v>3587898372.550967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109862985441394</v>
+        <v>0.08463122422220609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04884371271821217</v>
+        <v>0.05019779633764104</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1571841004.793004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2804715868.502503</v>
+        <v>2625893973.269374</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09071545885096616</v>
+        <v>0.10723207876</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04277520060548184</v>
+        <v>0.04504077013965192</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1402357876.758313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2209006763.01876</v>
+        <v>2428683497.55351</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07583054328255734</v>
+        <v>0.06958535381594007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03635035403971713</v>
+        <v>0.03883018022967868</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>97</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1104503422.555163</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3465074325.569705</v>
+        <v>3629369994.686972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1909366611181958</v>
+        <v>0.2139108239596472</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02975930014183647</v>
+        <v>0.02668414733961412</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>98</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1732537267.845762</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1721936214.336563</v>
+        <v>1839873799.963486</v>
       </c>
       <c r="F9" t="n">
-        <v>0.153753604867669</v>
+        <v>0.1729695988143523</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02572042325807514</v>
+        <v>0.03321073227615281</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>860968172.3600534</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5111630517.451091</v>
+        <v>5509126703.687834</v>
       </c>
       <c r="F10" t="n">
-        <v>0.175025215991757</v>
+        <v>0.1826853540845582</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05396414642590082</v>
+        <v>0.04473084193276879</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>129</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2555815366.716825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2946281732.610501</v>
+        <v>2690897152.189746</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1864189136513361</v>
+        <v>0.1401372774655227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04748581633230984</v>
+        <v>0.04974983553671114</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>127</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1473140805.489359</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2264471508.579762</v>
+        <v>2283090112.164334</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1345750360983509</v>
+        <v>0.1756301803028959</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03457170537902013</v>
+        <v>0.04612544145180723</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>105</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1132235704.952238</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4778915379.068377</v>
+        <v>4609444960.763222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07710361622937227</v>
+        <v>0.06312508173542465</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02060056305653709</v>
+        <v>0.03005908478565555</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>103</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2389457704.898491</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2795225646.365004</v>
+        <v>3018601682.652308</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1870017019570032</v>
+        <v>0.1522998906298164</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0308554627182217</v>
+        <v>0.03839456054973572</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1397612872.44917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1699790663.772854</v>
+        <v>1740623393.281466</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1044993679968406</v>
+        <v>0.06597247526493766</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03233946322973195</v>
+        <v>0.04053693743248195</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>849895462.6860168</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2064268142.994298</v>
+        <v>2453770559.255706</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07442407426012458</v>
+        <v>0.09401601370108981</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04003356731131509</v>
+        <v>0.03257316889368996</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1032134141.254148</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4177429511.03327</v>
+        <v>4891727801.631472</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1065103809023363</v>
+        <v>0.1753833622334442</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03856789474424949</v>
+        <v>0.05026716759196961</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>90</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2088714781.302246</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2493815736.214097</v>
+        <v>3005593083.456405</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1750200873643024</v>
+        <v>0.1443732000967017</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02611475198307101</v>
+        <v>0.02567065047752139</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>101</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1246907935.07204</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>850726927.6483661</v>
+        <v>939454893.1632025</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1385148602145768</v>
+        <v>0.1400015856020851</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01685009318286938</v>
+        <v>0.01665962960508179</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>425363456.7374638</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2334418754.392425</v>
+        <v>2189806040.364206</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1523747963890883</v>
+        <v>0.1023478809701146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02213775221734851</v>
+        <v>0.02639823102151136</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1167209367.923</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2584115088.386908</v>
+        <v>1934124066.811146</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0996697508980533</v>
+        <v>0.07967112860335181</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03489990564528225</v>
+        <v>0.03669057569294529</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1292057524.28958</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3786910546.655865</v>
+        <v>3443422481.993559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1234824691079313</v>
+        <v>0.1378792480393045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05541158092253084</v>
+        <v>0.03563706774888103</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>85</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1893455287.736313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1051993165.466425</v>
+        <v>1318429282.705831</v>
       </c>
       <c r="F23" t="n">
-        <v>0.177442263048191</v>
+        <v>0.1465502855063932</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04064001533854357</v>
+        <v>0.03306665301572028</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>525996644.1736714</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3321943169.984356</v>
+        <v>2841576084.19213</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1369086213763338</v>
+        <v>0.1351247177014528</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02424735443518334</v>
+        <v>0.03004457488633973</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>90</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1660971598.591443</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1125601130.853155</v>
+        <v>1122588357.170717</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1229179921776165</v>
+        <v>0.09102392362719132</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03042890882713238</v>
+        <v>0.02881148934522077</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>562800600.5194663</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1149062877.449655</v>
+        <v>976440538.9128908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09946135438139998</v>
+        <v>0.08649398028952823</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03279901820126194</v>
+        <v>0.02545860058453577</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>574531447.3449844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4686849616.792472</v>
+        <v>4330880229.670142</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1541784312718695</v>
+        <v>0.1325487698213152</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02503121423568775</v>
+        <v>0.01817406127099017</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>73</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2343424784.420242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2351353500.223549</v>
+        <v>2496712167.942322</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1482673928886614</v>
+        <v>0.119430562952712</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03268608931377434</v>
+        <v>0.03248618559557329</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>99</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1175676705.01496</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4006749813.039247</v>
+        <v>4835930955.410078</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1299221402413197</v>
+        <v>0.1434928073572727</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04665696068909832</v>
+        <v>0.03328613929253186</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>136</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2003374922.885273</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2299060418.475273</v>
+        <v>1739046283.582703</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08920712326547144</v>
+        <v>0.1155357329792524</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04005797225517959</v>
+        <v>0.03407637241221383</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1149530280.791209</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1160634758.38969</v>
+        <v>1096813227.565907</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06887967208753916</v>
+        <v>0.07615121928270854</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04027742997144655</v>
+        <v>0.04476213156345925</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>580317339.9307343</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1342029043.190551</v>
+        <v>1850984813.237686</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07410452757505455</v>
+        <v>0.07433708171444388</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02668202722530115</v>
+        <v>0.03250990685901206</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>671014557.2092053</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2946460085.168683</v>
+        <v>2214933047.508435</v>
       </c>
       <c r="F33" t="n">
-        <v>0.167069332857552</v>
+        <v>0.1623236188784027</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04662340529442322</v>
+        <v>0.06080217159421219</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>91</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1473230042.797479</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1379093059.55658</v>
+        <v>1089785754.196526</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09760717958471117</v>
+        <v>0.1043962810901077</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02184127979161711</v>
+        <v>0.02008703496714854</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>689546505.4486741</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1064561632.444033</v>
+        <v>1088312588.019824</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08740098915377646</v>
+        <v>0.07784835246895139</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03983082146522092</v>
+        <v>0.03804279601312532</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>532280820.6630988</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2079665800.376621</v>
+        <v>2639164931.616006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1624495196591754</v>
+        <v>0.1717644435242949</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02076809130196777</v>
+        <v>0.02793186309784153</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1039832955.845578</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1839254788.747446</v>
+        <v>2656163364.719529</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09024118218148221</v>
+        <v>0.09388175392977206</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0322701244061506</v>
+        <v>0.03668062339681859</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>919627399.5541942</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2177905392.34977</v>
+        <v>1816876598.533306</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09231837999010697</v>
+        <v>0.1079861357066927</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03826570126534856</v>
+        <v>0.03330650348508585</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1088952649.670995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1901014443.63634</v>
+        <v>1814327874.772896</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1845307574124692</v>
+        <v>0.1434587868195154</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02496749885461121</v>
+        <v>0.0205944179802095</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>950507231.3706458</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1449004595.723456</v>
+        <v>1207560185.188726</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1028075606758804</v>
+        <v>0.1585883362996633</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05542312865800988</v>
+        <v>0.04249246038474313</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>724502276.8331994</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2876222839.886255</v>
+        <v>2500507665.471424</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1466310786969494</v>
+        <v>0.1115662634367242</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03195015514659365</v>
+        <v>0.03993134961943102</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>76</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1438111408.372045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4284592530.320488</v>
+        <v>2861698995.994748</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09536024707044126</v>
+        <v>0.1238378672814237</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03445631336577291</v>
+        <v>0.03704779256790281</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2142296314.0289</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3060171023.797913</v>
+        <v>2393573033.065161</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1761817762988134</v>
+        <v>0.1840655770070651</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02209447656066099</v>
+        <v>0.02531123951794574</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1530085504.233984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1627658051.709397</v>
+        <v>1636381353.358528</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08864368142381744</v>
+        <v>0.06352806001266328</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03550382629094748</v>
+        <v>0.03663471053641003</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>813829057.905163</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2481178166.650383</v>
+        <v>1797854080.434421</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1809452780028197</v>
+        <v>0.1287164294990067</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04970609648322898</v>
+        <v>0.04242639939063973</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1240589122.726357</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3720218972.052267</v>
+        <v>4755607246.998913</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1570516312903818</v>
+        <v>0.1715138742444692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05645677142473725</v>
+        <v>0.03710478604959971</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>109</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1860109439.555374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3585935388.267196</v>
+        <v>4919917049.755323</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1254222852596864</v>
+        <v>0.1777745683348807</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04280976635978449</v>
+        <v>0.0363146600485551</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>82</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1792967669.78914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4620202594.153234</v>
+        <v>4237212579.585578</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1053309704636314</v>
+        <v>0.07475318054700872</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03149400138606006</v>
+        <v>0.03070051993535895</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>101</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2310101295.399825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1813560318.685882</v>
+        <v>1631877008.17706</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1335821130926357</v>
+        <v>0.1237863371478912</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02971594407487863</v>
+        <v>0.03929460506754492</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>906780142.6244133</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2653100505.917765</v>
+        <v>2861005958.842861</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1467175679270602</v>
+        <v>0.1258539058425974</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03598721046046343</v>
+        <v>0.03782691843733014</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>105</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1326550337.492262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1071748119.060816</v>
+        <v>1498674427.96528</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1491513752840989</v>
+        <v>0.130920042567596</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04804864674155099</v>
+        <v>0.04723587220300559</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>535874131.8743979</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4873947781.156796</v>
+        <v>3832397414.558564</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1215341131640895</v>
+        <v>0.09966390513349592</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04922811676519196</v>
+        <v>0.04610586208948823</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>127</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2436973895.623284</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3370063196.546933</v>
+        <v>2734795581.715608</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1800251606352846</v>
+        <v>0.1410846682741058</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02156766609385947</v>
+        <v>0.0268485316529857</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>88</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1685031605.161163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4448347418.704631</v>
+        <v>4274890908.712605</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1334054352343866</v>
+        <v>0.1385677582273901</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05150582266342795</v>
+        <v>0.05227444462569483</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2224173808.63459</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4099530989.412391</v>
+        <v>4914070550.622307</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2122664096477773</v>
+        <v>0.1375835712041306</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03011016031027117</v>
+        <v>0.02559975847803762</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2049765474.010121</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1245537195.292475</v>
+        <v>1771554253.858535</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1191437028226791</v>
+        <v>0.1029573966062267</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04924104785781124</v>
+        <v>0.03639018938992176</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>622768677.5830925</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3553499834.32564</v>
+        <v>3958703307.956845</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1679861663459919</v>
+        <v>0.1395312994761151</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02141651783909679</v>
+        <v>0.01853875451328462</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>98</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1776749968.043612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1227366399.064038</v>
+        <v>1801835275.901257</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1959811148846277</v>
+        <v>0.1325418387200246</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02664634240251769</v>
+        <v>0.03281802857198654</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>613683255.5439119</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3836739440.823608</v>
+        <v>3909497354.408153</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1164538261717723</v>
+        <v>0.1088071783484873</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03720932957498779</v>
+        <v>0.04640299864805399</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1918369704.242526</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3426221969.421169</v>
+        <v>2345196684.739741</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1573790657843424</v>
+        <v>0.1832086199993684</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02293721589447912</v>
+        <v>0.02488386766004642</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>95</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1713111099.771901</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2622157516.832193</v>
+        <v>2300015413.657114</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1158386719898539</v>
+        <v>0.1286375177867957</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02490814023059543</v>
+        <v>0.02539057070873868</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>105</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1311078774.512192</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1279550011.231906</v>
+        <v>1521400082.318347</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1737601577610588</v>
+        <v>0.1425885632087906</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04388591292923993</v>
+        <v>0.03603609869956218</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>639774955.6016284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3972340471.288404</v>
+        <v>5364783246.432669</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07809943929403813</v>
+        <v>0.07608975588292302</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04282871546259853</v>
+        <v>0.03152826033207084</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1986170299.265585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3475783135.307371</v>
+        <v>4240414362.470052</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1326064898181818</v>
+        <v>0.1756353639282455</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02706671302285107</v>
+        <v>0.03351421941516398</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>96</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1737891566.647818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5089795638.575918</v>
+        <v>4143277345.565525</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1277821420059401</v>
+        <v>0.1089263932611124</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02218729154342622</v>
+        <v>0.02553967115746133</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>111</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2544897772.847132</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4387594675.320971</v>
+        <v>3680738863.080886</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1167287760143743</v>
+        <v>0.144135369212766</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04250905169680091</v>
+        <v>0.04916078269910233</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>89</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2193797331.98489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2868332047.107106</v>
+        <v>2700719553.067435</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0741925245907602</v>
+        <v>0.07660355957633246</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03535516528260734</v>
+        <v>0.05126284990025649</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>98</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1434166052.99052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4282110732.872353</v>
+        <v>4318262820.51211</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1180353015286176</v>
+        <v>0.1526049948652125</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03169246650290022</v>
+        <v>0.03426611590143692</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>98</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2141055379.317716</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1604251661.326786</v>
+        <v>1858348247.961558</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585894435080743</v>
+        <v>0.1741109234341762</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05724731069996024</v>
+        <v>0.05187682599713376</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>802125784.4379383</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3606076485.130555</v>
+        <v>2742889433.538111</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07329786905352439</v>
+        <v>0.06984114849099239</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03226141613357714</v>
+        <v>0.03448202781443047</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1803038259.073727</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4387046903.000232</v>
+        <v>5404786991.904847</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1313489403469132</v>
+        <v>0.1661050763488431</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02786656692627133</v>
+        <v>0.03003059143974923</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>112</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2193523511.43329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1887236951.925755</v>
+        <v>2038359362.566478</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08643364676286623</v>
+        <v>0.06720643779543951</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05016724258169948</v>
+        <v>0.03517625818227205</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>943618440.494287</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2346743205.640647</v>
+        <v>3226622637.164813</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08303687620384628</v>
+        <v>0.1050640346874871</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05245962885981115</v>
+        <v>0.03289581662737123</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>117</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1173371658.636671</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3270275161.98343</v>
+        <v>3688978211.886292</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1495259369098906</v>
+        <v>0.171733014889107</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03180689609223208</v>
+        <v>0.03031121189274525</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>105</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1635137623.048216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2346620381.25323</v>
+        <v>1747728522.892502</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1404930804183724</v>
+        <v>0.110712511246854</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02593460184666107</v>
+        <v>0.03097493604104092</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1173310122.382679</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4143648320.954838</v>
+        <v>4538984632.499542</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1002633269135551</v>
+        <v>0.1194219857532964</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0225190090288467</v>
+        <v>0.02091275842465591</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2071824151.245158</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2223035345.137948</v>
+        <v>1622284199.092124</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1454150349627645</v>
+        <v>0.136124847880555</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02781226283277382</v>
+        <v>0.01931895989594975</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1111517767.067913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2974145486.20867</v>
+        <v>3748761521.643734</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1146512436697987</v>
+        <v>0.1306756437493332</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05034376758992637</v>
+        <v>0.05327459773526712</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>107</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1487072782.247309</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1305537956.890419</v>
+        <v>1228683270.213095</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1626690043315746</v>
+        <v>0.1245143983395537</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0336429351450126</v>
+        <v>0.03256825187881097</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>652768978.6115832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3873044761.954432</v>
+        <v>4300353821.05767</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08872603098164711</v>
+        <v>0.08804863130466878</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02864302993781924</v>
+        <v>0.0242459605698379</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>64</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1936522374.149728</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3521991131.073995</v>
+        <v>4749792412.704552</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08783023489890907</v>
+        <v>0.1009677425590339</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02489683751790278</v>
+        <v>0.02214177391214506</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1760995510.985754</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3690203029.59772</v>
+        <v>3851643346.348212</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1954539670260679</v>
+        <v>0.1545522765716141</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02285725548038544</v>
+        <v>0.02877658698759053</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>108</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1845101571.855838</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2345797289.395287</v>
+        <v>1869393361.707862</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12895236260132</v>
+        <v>0.1352027507195895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0306479276888173</v>
+        <v>0.03199884977343695</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1172898673.016147</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1954126417.455235</v>
+        <v>1625264480.986473</v>
       </c>
       <c r="F84" t="n">
-        <v>0.106598935885981</v>
+        <v>0.1156388655636981</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05045618603865187</v>
+        <v>0.0422077834199396</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>977063220.4611957</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3582191322.979799</v>
+        <v>3389425129.788769</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1138601140904533</v>
+        <v>0.1770887114847096</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0509204424855257</v>
+        <v>0.05622002386026834</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>116</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1791095785.907621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2026134734.303922</v>
+        <v>2218738071.965286</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1308460700611999</v>
+        <v>0.1343795811401605</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02125280128522222</v>
+        <v>0.02186400566337986</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1013067398.42438</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1005526842.613362</v>
+        <v>1302879835.617012</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1621125087684045</v>
+        <v>0.1418964828652395</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04282136931639843</v>
+        <v>0.04388292620077001</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>502763427.0687528</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3258129631.013536</v>
+        <v>2437936445.483918</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1324251501314362</v>
+        <v>0.1494921237818281</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03729649493416378</v>
+        <v>0.03442111717395287</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>122</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1629064871.462532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2612776954.882011</v>
+        <v>2311768820.096316</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1474430403704443</v>
+        <v>0.1435149942399458</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02825840081553268</v>
+        <v>0.04112794710556731</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>104</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1306388543.93116</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1688725133.097862</v>
+        <v>1917556261.698698</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1096100481079171</v>
+        <v>0.1213817721344633</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04747652267882155</v>
+        <v>0.04921518142619244</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>844362579.7955171</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1369452349.01643</v>
+        <v>1881115796.897502</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1556007596904906</v>
+        <v>0.1956854368320655</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03749434625471138</v>
+        <v>0.0420989768744368</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>684726230.8314131</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2875175279.209974</v>
+        <v>2013897201.781761</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09041069683711883</v>
+        <v>0.08122165249022333</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03709313174636821</v>
+        <v>0.03404804400103997</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>80</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1437587651.908461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3739012627.955055</v>
+        <v>4125280534.156249</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1148850945535992</v>
+        <v>0.08580904164234948</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05368344578450815</v>
+        <v>0.04505307762758569</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1869506331.473875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2442915047.372795</v>
+        <v>1785281704.056206</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1151797696364084</v>
+        <v>0.1146486847252953</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02903083234194781</v>
+        <v>0.03217970540954343</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1221457579.665585</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2167258159.526602</v>
+        <v>2524048533.973681</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1198720174039449</v>
+        <v>0.1316035574635766</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03563238755877191</v>
+        <v>0.04613572517529462</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1083629140.059973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2010237749.507933</v>
+        <v>2053451482.100656</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08596177630555683</v>
+        <v>0.09571569465250625</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03840153627939406</v>
+        <v>0.02913605208250884</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1005118860.643594</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3958452468.814517</v>
+        <v>4402334939.590028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1486945262135766</v>
+        <v>0.122489957856338</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02224609522035675</v>
+        <v>0.02330549580698588</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1979226287.449219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2380833710.878927</v>
+        <v>2866073742.567569</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1032040764807727</v>
+        <v>0.08427513423297046</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02298118361864804</v>
+        <v>0.02475194547519941</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1190416798.148817</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3282152480.244625</v>
+        <v>3237932467.246682</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1468068345409581</v>
+        <v>0.1198405878281237</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02812613603336043</v>
+        <v>0.03177733496494979</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1641076246.503297</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3129665322.212347</v>
+        <v>3140248667.873808</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1297526606347459</v>
+        <v>0.1245959790972673</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02471988640709195</v>
+        <v>0.02378655745369735</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1564832662.308442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3176664963.526556</v>
+        <v>2876203291.626689</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1880875937091494</v>
+        <v>0.2169210686671007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05628319262555553</v>
+        <v>0.05517054278646571</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>122</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1588332594.14385</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_308.xlsx
+++ b/output/fit_clients/fit_round_308.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2370108382.010585</v>
+        <v>2299015374.5879</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1009967622580982</v>
+        <v>0.078270866918201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03280737411680176</v>
+        <v>0.04350591595825554</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1963173205.779778</v>
+        <v>2636074675.372354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1588649280490782</v>
+        <v>0.1600836592017482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03872983013963974</v>
+        <v>0.04657562507873717</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5140560231.614796</v>
+        <v>3175522739.874275</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1261635566413657</v>
+        <v>0.1421735060127197</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03417666386350419</v>
+        <v>0.03322849986397345</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3587898372.550967</v>
+        <v>2987400990.861435</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08463122422220609</v>
+        <v>0.0798597109209936</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05019779633764104</v>
+        <v>0.04643277464593774</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2625893973.269374</v>
+        <v>2702853724.184954</v>
       </c>
       <c r="F6" t="n">
-        <v>0.10723207876</v>
+        <v>0.09394062272223277</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04504077013965192</v>
+        <v>0.03793858126117486</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2428683497.55351</v>
+        <v>2237294507.471425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06958535381594007</v>
+        <v>0.08676261737199417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03883018022967868</v>
+        <v>0.04467876634468328</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3629369994.686972</v>
+        <v>3024534854.278005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2139108239596472</v>
+        <v>0.2113565854156268</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02668414733961412</v>
+        <v>0.02149108342872583</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1839873799.963486</v>
+        <v>1896252995.012453</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1729695988143523</v>
+        <v>0.1912944552123787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03321073227615281</v>
+        <v>0.02312794339331739</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5509126703.687834</v>
+        <v>5429554085.796929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1826853540845582</v>
+        <v>0.1943045333099216</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04473084193276879</v>
+        <v>0.05288977723601109</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2690897152.189746</v>
+        <v>4011959856.584396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1401372774655227</v>
+        <v>0.1474921934925856</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04974983553671114</v>
+        <v>0.03589380872297955</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2283090112.164334</v>
+        <v>2007818579.6435</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1756301803028959</v>
+        <v>0.1860579500045935</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04612544145180723</v>
+        <v>0.03980850452681171</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4609444960.763222</v>
+        <v>3743716893.49332</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06312508173542465</v>
+        <v>0.06706677685453517</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03005908478565555</v>
+        <v>0.02459955179446073</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3018601682.652308</v>
+        <v>3230496778.319564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1522998906298164</v>
+        <v>0.1692046619166505</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03839456054973572</v>
+        <v>0.03588284904491019</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1740623393.281466</v>
+        <v>1469522157.42588</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06597247526493766</v>
+        <v>0.09005253070665353</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04053693743248195</v>
+        <v>0.03113943265569131</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2453770559.255706</v>
+        <v>2309595017.014848</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09401601370108981</v>
+        <v>0.10694404395524</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03257316889368996</v>
+        <v>0.04718768738055699</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4891727801.631472</v>
+        <v>5225194566.513893</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1753833622334442</v>
+        <v>0.1265133600605379</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05026716759196961</v>
+        <v>0.04813193569100506</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3005593083.456405</v>
+        <v>3595379521.953411</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1443732000967017</v>
+        <v>0.1598263102287537</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02567065047752139</v>
+        <v>0.02971119130604401</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>939454893.1632025</v>
+        <v>1151424884.800225</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1400015856020851</v>
+        <v>0.1161519957366834</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01665962960508179</v>
+        <v>0.01783448465936879</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2189806040.364206</v>
+        <v>2303411433.650993</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1023478809701146</v>
+        <v>0.1464180247097861</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02639823102151136</v>
+        <v>0.02545723216491761</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1934124066.811146</v>
+        <v>2356652756.227505</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07967112860335181</v>
+        <v>0.07506313241738323</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03669057569294529</v>
+        <v>0.03681788576151663</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3443422481.993559</v>
+        <v>3958379994.292613</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1378792480393045</v>
+        <v>0.1208490832810786</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03563706774888103</v>
+        <v>0.03735463627911845</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1318429282.705831</v>
+        <v>1282617767.574009</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1465502855063932</v>
+        <v>0.1836788137207294</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03306665301572028</v>
+        <v>0.03756952272177377</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2841576084.19213</v>
+        <v>3778464153.057464</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1351247177014528</v>
+        <v>0.1097525853734865</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03004457488633973</v>
+        <v>0.02651284680660735</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1122588357.170717</v>
+        <v>987625546.8663218</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09102392362719132</v>
+        <v>0.1202880219836613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02881148934522077</v>
+        <v>0.02357092121430327</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>976440538.9128908</v>
+        <v>1045536323.552545</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08649398028952823</v>
+        <v>0.1084928417490734</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02545860058453577</v>
+        <v>0.03298837552406793</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4330880229.670142</v>
+        <v>4548994374.110206</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1325487698213152</v>
+        <v>0.1487471903697671</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01817406127099017</v>
+        <v>0.01868386337213966</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2496712167.942322</v>
+        <v>3209120860.031675</v>
       </c>
       <c r="F28" t="n">
-        <v>0.119430562952712</v>
+        <v>0.1062942617731862</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03248618559557329</v>
+        <v>0.04820030559374251</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4835930955.410078</v>
+        <v>3904662419.703817</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1434928073572727</v>
+        <v>0.1319956541297228</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03328613929253186</v>
+        <v>0.03551439995835037</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1739046283.582703</v>
+        <v>2031683824.041011</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1155357329792524</v>
+        <v>0.1119818985159339</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03407637241221383</v>
+        <v>0.03506572415649807</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1096813227.565907</v>
+        <v>1153903442.995821</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07615121928270854</v>
+        <v>0.09818286564731174</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04476213156345925</v>
+        <v>0.041435770910858</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1850984813.237686</v>
+        <v>1291372717.676166</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07433708171444388</v>
+        <v>0.1209803236531736</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03250990685901206</v>
+        <v>0.03331916263519548</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2214933047.508435</v>
+        <v>1930943666.402474</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1623236188784027</v>
+        <v>0.141351072846426</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06080217159421219</v>
+        <v>0.0546656037376571</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1089785754.196526</v>
+        <v>1372898086.892737</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1043962810901077</v>
+        <v>0.07788186913791108</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02008703496714854</v>
+        <v>0.01723339821783562</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1088312588.019824</v>
+        <v>1026396910.753402</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07784835246895139</v>
+        <v>0.09483813152873695</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03804279601312532</v>
+        <v>0.03765469852516531</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2639164931.616006</v>
+        <v>2581164994.861586</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1717644435242949</v>
+        <v>0.1700452454459995</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02793186309784153</v>
+        <v>0.02016130466298558</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2656163364.719529</v>
+        <v>1807829712.452242</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09388175392977206</v>
+        <v>0.1037670048385608</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03668062339681859</v>
+        <v>0.03366400884273722</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1816876598.533306</v>
+        <v>2171441279.523004</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1079861357066927</v>
+        <v>0.08882057781263579</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03330650348508585</v>
+        <v>0.03473204590913605</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1814327874.772896</v>
+        <v>1454618543.925624</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1434587868195154</v>
+        <v>0.1404354132453513</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0205944179802095</v>
+        <v>0.0301451930813268</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1207560185.188726</v>
+        <v>1581351986.511087</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1585883362996633</v>
+        <v>0.1577047973097893</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04249246038474313</v>
+        <v>0.05684186661191727</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2500507665.471424</v>
+        <v>2313221836.454943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1115662634367242</v>
+        <v>0.1246535288507126</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03993134961943102</v>
+        <v>0.04651724924170318</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2861698995.994748</v>
+        <v>4050094547.785578</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1238378672814237</v>
+        <v>0.1216045055698985</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03704779256790281</v>
+        <v>0.03364307144317943</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2393573033.065161</v>
+        <v>2430494842.817962</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1840655770070651</v>
+        <v>0.1527209291092792</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02531123951794574</v>
+        <v>0.02222033141619249</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1636381353.358528</v>
+        <v>2242867863.469283</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06352806001266328</v>
+        <v>0.06659516121566085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03663471053641003</v>
+        <v>0.03034949388194357</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1797854080.434421</v>
+        <v>2468469624.758876</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1287164294990067</v>
+        <v>0.1430675708786625</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04242639939063973</v>
+        <v>0.04968174367305923</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4755607246.998913</v>
+        <v>3729461656.935389</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1715138742444692</v>
+        <v>0.1754081654977755</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03710478604959971</v>
+        <v>0.04945599264364064</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4919917049.755323</v>
+        <v>4468442987.211165</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1777745683348807</v>
+        <v>0.1533704621832924</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0363146600485551</v>
+        <v>0.05856920982845893</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4237212579.585578</v>
+        <v>3423219026.746807</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07475318054700872</v>
+        <v>0.08599980259479013</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03070051993535895</v>
+        <v>0.03501461873301218</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1631877008.17706</v>
+        <v>1616958459.549854</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1237863371478912</v>
+        <v>0.159008807760511</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03929460506754492</v>
+        <v>0.03979728315257774</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2861005958.842861</v>
+        <v>2657988576.103395</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1258539058425974</v>
+        <v>0.1238332407436289</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03782691843733014</v>
+        <v>0.04354759040726831</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1498674427.96528</v>
+        <v>1230763824.998149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.130920042567596</v>
+        <v>0.1612418896707047</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04723587220300559</v>
+        <v>0.0510131394709793</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3832397414.558564</v>
+        <v>3630360566.089277</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09966390513349592</v>
+        <v>0.09075913910898772</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04610586208948823</v>
+        <v>0.05630390742869724</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2734795581.715608</v>
+        <v>2545266053.71518</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1410846682741058</v>
+        <v>0.1375500674399677</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0268485316529857</v>
+        <v>0.02209858658005513</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4274890908.712605</v>
+        <v>3840087296.732464</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1385677582273901</v>
+        <v>0.1406035254283091</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05227444462569483</v>
+        <v>0.0473953040239422</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4914070550.622307</v>
+        <v>3164064748.684186</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1375835712041306</v>
+        <v>0.1909764534271339</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02559975847803762</v>
+        <v>0.02587529417031764</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1771554253.858535</v>
+        <v>1138654398.32475</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1029573966062267</v>
+        <v>0.149155526566711</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03639018938992176</v>
+        <v>0.05395497855381774</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3958703307.956845</v>
+        <v>4192122681.01695</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1395312994761151</v>
+        <v>0.1472014937934397</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01853875451328462</v>
+        <v>0.01852248265173774</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1801835275.901257</v>
+        <v>1574490942.640069</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1325418387200246</v>
+        <v>0.1673316754760271</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03281802857198654</v>
+        <v>0.03326359499643198</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3909497354.408153</v>
+        <v>4283251608.775588</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1088071783484873</v>
+        <v>0.1125472594067532</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04640299864805399</v>
+        <v>0.04291668937177318</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2345196684.739741</v>
+        <v>3364640284.651322</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1832086199993684</v>
+        <v>0.159097779666428</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02488386766004642</v>
+        <v>0.02375412081411152</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2300015413.657114</v>
+        <v>2910979634.917968</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1286375177867957</v>
+        <v>0.1092145499459485</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02539057070873868</v>
+        <v>0.0293365778594687</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1521400082.318347</v>
+        <v>1553587827.118148</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1425885632087906</v>
+        <v>0.1403833886699665</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03603609869956218</v>
+        <v>0.04013593591228303</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5364783246.432669</v>
+        <v>4483428337.353015</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07608975588292302</v>
+        <v>0.07798276650798551</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03152826033207084</v>
+        <v>0.04696333869186151</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4240414362.470052</v>
+        <v>4765612876.870291</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1756353639282455</v>
+        <v>0.181160458078549</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03351421941516398</v>
+        <v>0.02687555663395251</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4143277345.565525</v>
+        <v>4242374085.281681</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1089263932611124</v>
+        <v>0.1293518603297218</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02553967115746133</v>
+        <v>0.02482127523622585</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3680738863.080886</v>
+        <v>5387126871.151333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.144135369212766</v>
+        <v>0.1063609787657136</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04916078269910233</v>
+        <v>0.03470922058522005</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2700719553.067435</v>
+        <v>2426396028.484363</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07660355957633246</v>
+        <v>0.09869093523151212</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05126284990025649</v>
+        <v>0.04514380548538741</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4318262820.51211</v>
+        <v>3800802528.832752</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1526049948652125</v>
+        <v>0.1307014676369347</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03426611590143692</v>
+        <v>0.03155368595926644</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1858348247.961558</v>
+        <v>1975751857.47636</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1741109234341762</v>
+        <v>0.1372899860712724</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05187682599713376</v>
+        <v>0.05541848473202424</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2742889433.538111</v>
+        <v>2630703628.07917</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06984114849099239</v>
+        <v>0.06614495645807339</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03448202781443047</v>
+        <v>0.03583542575413387</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5404786991.904847</v>
+        <v>5617209398.156962</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1661050763488431</v>
+        <v>0.1727208923452422</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03003059143974923</v>
+        <v>0.021523175936303</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2038359362.566478</v>
+        <v>1467773753.98638</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06720643779543951</v>
+        <v>0.07239095964166026</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03517625818227205</v>
+        <v>0.03827230474746363</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3226622637.164813</v>
+        <v>2385877204.403112</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1050640346874871</v>
+        <v>0.07169656396350983</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03289581662737123</v>
+        <v>0.04430842067314553</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3688978211.886292</v>
+        <v>3779560832.1299</v>
       </c>
       <c r="F74" t="n">
-        <v>0.171733014889107</v>
+        <v>0.118571228076223</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03031121189274525</v>
+        <v>0.03336562084453763</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1747728522.892502</v>
+        <v>1583063959.389048</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110712511246854</v>
+        <v>0.1651130717466728</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03097493604104092</v>
+        <v>0.0348849304274687</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4538984632.499542</v>
+        <v>4128393264.509689</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1194219857532964</v>
+        <v>0.08662568008289172</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02091275842465591</v>
+        <v>0.02675706846959229</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1622284199.092124</v>
+        <v>1978503285.72126</v>
       </c>
       <c r="F77" t="n">
-        <v>0.136124847880555</v>
+        <v>0.1456708678999652</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01931895989594975</v>
+        <v>0.02809480921013592</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3748761521.643734</v>
+        <v>4306620427.635706</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1306756437493332</v>
+        <v>0.08387430306284929</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05327459773526712</v>
+        <v>0.04158202715690179</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1228683270.213095</v>
+        <v>1366190905.528799</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1245143983395537</v>
+        <v>0.1262371448270636</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03256825187881097</v>
+        <v>0.03856416500181082</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4300353821.05767</v>
+        <v>5036656336.454346</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08804863130466878</v>
+        <v>0.1062336180082584</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0242459605698379</v>
+        <v>0.02746397905119225</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4749792412.704552</v>
+        <v>3664537940.423377</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1009677425590339</v>
+        <v>0.1301422887254033</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02214177391214506</v>
+        <v>0.02234694320460088</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3851643346.348212</v>
+        <v>5470190641.997501</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1545522765716141</v>
+        <v>0.1501736923592249</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02877658698759053</v>
+        <v>0.02309862229452714</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1869393361.707862</v>
+        <v>1767076816.899158</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1352027507195895</v>
+        <v>0.1254885945201827</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03199884977343695</v>
+        <v>0.02853903741357914</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1625264480.986473</v>
+        <v>1706534474.557866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1156388655636981</v>
+        <v>0.09007905793858693</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0422077834199396</v>
+        <v>0.03388867436449006</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3389425129.788769</v>
+        <v>2725171062.391923</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1770887114847096</v>
+        <v>0.1180250371104866</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05622002386026834</v>
+        <v>0.04605005732492074</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2218738071.965286</v>
+        <v>2352514104.158029</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1343795811401605</v>
+        <v>0.1051508487627891</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02186400566337986</v>
+        <v>0.0267002637751478</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1302879835.617012</v>
+        <v>1330026284.648749</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1418964828652395</v>
+        <v>0.144830425392355</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04388292620077001</v>
+        <v>0.04423624735681857</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2437936445.483918</v>
+        <v>2616674424.622699</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1494921237818281</v>
+        <v>0.1425050278641222</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03442111717395287</v>
+        <v>0.03816071212237466</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2311768820.096316</v>
+        <v>3081309214.60217</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1435149942399458</v>
+        <v>0.1451841636824833</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04112794710556731</v>
+        <v>0.04077481701165944</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1917556261.698698</v>
+        <v>1854342796.406422</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1213817721344633</v>
+        <v>0.1018658649407873</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04921518142619244</v>
+        <v>0.048091374588022</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1881115796.897502</v>
+        <v>1272646397.455591</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1956854368320655</v>
+        <v>0.1904722992789085</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0420989768744368</v>
+        <v>0.05004704925090668</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2013897201.781761</v>
+        <v>2947734110.018737</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08122165249022333</v>
+        <v>0.08482450833132801</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03404804400103997</v>
+        <v>0.03043014375536101</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4125280534.156249</v>
+        <v>4379952360.227444</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08580904164234948</v>
+        <v>0.1126622455141227</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04505307762758569</v>
+        <v>0.05290918222125858</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1785281704.056206</v>
+        <v>1983270039.430159</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1146486847252953</v>
+        <v>0.1686657624769693</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03217970540954343</v>
+        <v>0.03350878772974739</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2524048533.973681</v>
+        <v>2869838881.284777</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1316035574635766</v>
+        <v>0.1072102803308515</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04613572517529462</v>
+        <v>0.0526644582582774</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2053451482.100656</v>
+        <v>2108792070.870065</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09571569465250625</v>
+        <v>0.1000181852342941</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02913605208250884</v>
+        <v>0.04695269198681647</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4402334939.590028</v>
+        <v>5314161379.893325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.122489957856338</v>
+        <v>0.1547888517670554</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02330549580698588</v>
+        <v>0.02446632389028486</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2866073742.567569</v>
+        <v>2717090762.130516</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08427513423297046</v>
+        <v>0.08704448140084092</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02475194547519941</v>
+        <v>0.03193220470445501</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3237932467.246682</v>
+        <v>2939118812.502474</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1198405878281237</v>
+        <v>0.1212064885447146</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03177733496494979</v>
+        <v>0.0255286373356551</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3140248667.873808</v>
+        <v>3449708816.520695</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1245959790972673</v>
+        <v>0.1635609831666137</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02378655745369735</v>
+        <v>0.01712512413767888</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2876203291.626689</v>
+        <v>2864235726.692033</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2169210686671007</v>
+        <v>0.2030546553881412</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05517054278646571</v>
+        <v>0.04678484253165678</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_308.xlsx
+++ b/output/fit_clients/fit_round_308.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2299015374.5879</v>
+        <v>1850037897.582337</v>
       </c>
       <c r="F2" t="n">
-        <v>0.078270866918201</v>
+        <v>0.0740607162147363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04350591595825554</v>
+        <v>0.03737800196068405</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2636074675.372354</v>
+        <v>2249220972.296744</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1600836592017482</v>
+        <v>0.165360899891268</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04657562507873717</v>
+        <v>0.04093624794940191</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3175522739.874275</v>
+        <v>3995693802.101732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1421735060127197</v>
+        <v>0.1039248873937902</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03322849986397345</v>
+        <v>0.03480375610199917</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J4" t="n">
+        <v>307</v>
+      </c>
+      <c r="K4" t="n">
+        <v>65.49929119461676</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2987400990.861435</v>
+        <v>2853661617.983149</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0798597109209936</v>
+        <v>0.1025396495367763</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04643277464593774</v>
+        <v>0.04358644939831195</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.09280578128878</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2702853724.184954</v>
+        <v>1996426818.030781</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09394062272223277</v>
+        <v>0.1268259537030481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03793858126117486</v>
+        <v>0.05614406151729917</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2237294507.471425</v>
+        <v>3093116441.880704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08676261737199417</v>
+        <v>0.09788048194883597</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04467876634468328</v>
+        <v>0.04693238097367988</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3024534854.278005</v>
+        <v>3615781668.822839</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2113565854156268</v>
+        <v>0.2038286564608246</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02149108342872583</v>
+        <v>0.03149198897128325</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>83</v>
+      </c>
+      <c r="J8" t="n">
+        <v>307</v>
+      </c>
+      <c r="K8" t="n">
+        <v>61.64559340939866</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +752,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1896252995.012453</v>
+        <v>1982217914.690985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1912944552123787</v>
+        <v>0.1811117724759803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02312794339331739</v>
+        <v>0.03201537036810333</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +787,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5429554085.796929</v>
+        <v>4821968567.059684</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1943045333099216</v>
+        <v>0.1365744512742752</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05288977723601109</v>
+        <v>0.0485145506191294</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>271</v>
+      </c>
+      <c r="J10" t="n">
+        <v>307</v>
+      </c>
+      <c r="K10" t="n">
+        <v>78.15617010226056</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4011959856.584396</v>
+        <v>3925095544.86774</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1474921934925856</v>
+        <v>0.1878798374845423</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03589380872297955</v>
+        <v>0.04243787054419128</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>123</v>
+      </c>
+      <c r="J11" t="n">
+        <v>308</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2007818579.6435</v>
+        <v>3200300250.745893</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1860579500045935</v>
+        <v>0.1891359885394248</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03980850452681171</v>
+        <v>0.04523611769739888</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3743716893.49332</v>
+        <v>4467870809.625482</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06706677685453517</v>
+        <v>0.08244361834212012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02459955179446073</v>
+        <v>0.02861032131764896</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>159</v>
+      </c>
+      <c r="J13" t="n">
+        <v>308</v>
+      </c>
+      <c r="K13" t="n">
+        <v>80.0294729604294</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3230496778.319564</v>
+        <v>3885261264.504737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1692046619166505</v>
+        <v>0.1545588312096512</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03588284904491019</v>
+        <v>0.03944207727325823</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>308</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1469522157.42588</v>
+        <v>1706963822.147603</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09005253070665353</v>
+        <v>0.09212285067650318</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03113943265569131</v>
+        <v>0.03325417486407486</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2309595017.014848</v>
+        <v>2394827957.90457</v>
       </c>
       <c r="F16" t="n">
-        <v>0.10694404395524</v>
+        <v>0.09249949217008886</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04718768738055699</v>
+        <v>0.03231599557843707</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5225194566.513893</v>
+        <v>5174036767.611833</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1265133600605379</v>
+        <v>0.1128964140935051</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04813193569100506</v>
+        <v>0.04114595537893198</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>146</v>
+      </c>
+      <c r="J17" t="n">
+        <v>307</v>
+      </c>
+      <c r="K17" t="n">
+        <v>76.69351127616358</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1073,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3595379521.953411</v>
+        <v>3096743977.753379</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1598263102287537</v>
+        <v>0.1506423138533528</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02971119130604401</v>
+        <v>0.02914463976789896</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1151424884.800225</v>
+        <v>886238245.0229213</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1161519957366834</v>
+        <v>0.1224083683539373</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01783448465936879</v>
+        <v>0.0213639914984376</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2303411433.650993</v>
+        <v>2593997299.927324</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1464180247097861</v>
+        <v>0.1307518665622587</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02545723216491761</v>
+        <v>0.02865210643765157</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2356652756.227505</v>
+        <v>2219468904.202337</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07506313241738323</v>
+        <v>0.08101096527184798</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03681788576151663</v>
+        <v>0.04541123210680761</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3958379994.292613</v>
+        <v>2768494763.662101</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1208490832810786</v>
+        <v>0.1206536667828571</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03735463627911845</v>
+        <v>0.03690040843543203</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>302</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1282617767.574009</v>
+        <v>1496325642.613201</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1836788137207294</v>
+        <v>0.1608452342317344</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03756952272177377</v>
+        <v>0.03807344456008229</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3778464153.057464</v>
+        <v>2631668209.549984</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1097525853734865</v>
+        <v>0.1305295300283756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02651284680660735</v>
+        <v>0.03230922821375679</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>91</v>
+      </c>
+      <c r="J24" t="n">
+        <v>306</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>987625546.8663218</v>
+        <v>1158862766.380376</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1202880219836613</v>
+        <v>0.08526234446908015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02357092121430327</v>
+        <v>0.0267744883695022</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1045536323.552545</v>
+        <v>1130070340.181376</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1084928417490734</v>
+        <v>0.09545824875223013</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03298837552406793</v>
+        <v>0.02874520965420054</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4548994374.110206</v>
+        <v>4442688087.623338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1487471903697671</v>
+        <v>0.1368466138456373</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01868386337213966</v>
+        <v>0.02009056714803394</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>128</v>
+      </c>
+      <c r="J27" t="n">
+        <v>307</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74.89180514953871</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3209120860.031675</v>
+        <v>3177008201.67245</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1062942617731862</v>
+        <v>0.1286717931753665</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04820030559374251</v>
+        <v>0.03707684761789809</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>306</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3904662419.703817</v>
+        <v>5614700441.205184</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1319956541297228</v>
+        <v>0.1405439274576862</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03551439995835037</v>
+        <v>0.03332309136645067</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>287</v>
+      </c>
+      <c r="J29" t="n">
+        <v>308</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2031683824.041011</v>
+        <v>2399653306.58324</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1119818985159339</v>
+        <v>0.1134252255930704</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03506572415649807</v>
+        <v>0.03561958533853088</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1153903442.995821</v>
+        <v>1455419634.647534</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09818286564731174</v>
+        <v>0.08254402850090384</v>
       </c>
       <c r="G31" t="n">
-        <v>0.041435770910858</v>
+        <v>0.03423701189638672</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1291372717.676166</v>
+        <v>1425922116.040418</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1209803236531736</v>
+        <v>0.1117661346821306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03331916263519548</v>
+        <v>0.02821479728795995</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1930943666.402474</v>
+        <v>2650960170.894871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.141351072846426</v>
+        <v>0.1796508476775306</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0546656037376571</v>
+        <v>0.05998576684521525</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1372898086.892737</v>
+        <v>1071911245.968706</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07788186913791108</v>
+        <v>0.1035815378097281</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01723339821783562</v>
+        <v>0.0189106824012886</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1026396910.753402</v>
+        <v>1249272870.028719</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09483813152873695</v>
+        <v>0.09047721680412522</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03765469852516531</v>
+        <v>0.03621095449325555</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2581164994.861586</v>
+        <v>2709142823.554335</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1700452454459995</v>
+        <v>0.178628490977445</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02016130466298558</v>
+        <v>0.01780406837836376</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1807829712.452242</v>
+        <v>2643233101.191108</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1037670048385608</v>
+        <v>0.09779973571277077</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03366400884273722</v>
+        <v>0.02845447575089629</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2171441279.523004</v>
+        <v>1814235342.128281</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08882057781263579</v>
+        <v>0.1074922513398038</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03473204590913605</v>
+        <v>0.02897285043408151</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1454618543.925624</v>
+        <v>1696859424.672686</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1404354132453513</v>
+        <v>0.1787178229870396</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0301451930813268</v>
+        <v>0.02852064391018802</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1581351986.511087</v>
+        <v>1188552144.973882</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1577047973097893</v>
+        <v>0.1294822909080889</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05684186661191727</v>
+        <v>0.04943209051067164</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2313221836.454943</v>
+        <v>2187765303.595361</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1246535288507126</v>
+        <v>0.1667192278069135</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04651724924170318</v>
+        <v>0.04213062392324058</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4050094547.785578</v>
+        <v>4044061848.231459</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1216045055698985</v>
+        <v>0.09880619216438138</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03364307144317943</v>
+        <v>0.03530621006903498</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>126</v>
+      </c>
+      <c r="J42" t="n">
+        <v>308</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2430494842.817962</v>
+        <v>2804120258.71419</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1527209291092792</v>
+        <v>0.1420067959465706</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02222033141619249</v>
+        <v>0.01589887696672683</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2242867863.469283</v>
+        <v>1754744085.218951</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06659516121566085</v>
+        <v>0.08445298236687006</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03034949388194357</v>
+        <v>0.02610895510533316</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2468469624.758876</v>
+        <v>1638533560.274846</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1430675708786625</v>
+        <v>0.1617784208153702</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04968174367305923</v>
+        <v>0.0536234556201682</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3729461656.935389</v>
+        <v>5480990505.481093</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1754081654977755</v>
+        <v>0.1265091241960603</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04945599264364064</v>
+        <v>0.0522170049370996</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>184</v>
+      </c>
+      <c r="J46" t="n">
+        <v>308</v>
+      </c>
+      <c r="K46" t="n">
+        <v>80.05640287936295</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4468442987.211165</v>
+        <v>3854492249.934798</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1533704621832924</v>
+        <v>0.1425270024835301</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05856920982845893</v>
+        <v>0.04223152880532031</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>137</v>
+      </c>
+      <c r="J47" t="n">
+        <v>308</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3423219026.746807</v>
+        <v>3364798448.318152</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08599980259479013</v>
+        <v>0.09666445560387128</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03501461873301218</v>
+        <v>0.03907239480367178</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>154</v>
+      </c>
+      <c r="J48" t="n">
+        <v>308</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1616958459.549854</v>
+        <v>1712098729.67912</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159008807760511</v>
+        <v>0.1927486485360031</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03979728315257774</v>
+        <v>0.03581461800782247</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2657988576.103395</v>
+        <v>3318151237.004833</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1238332407436289</v>
+        <v>0.1186421516308453</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04354759040726831</v>
+        <v>0.03248801593306574</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>97</v>
+      </c>
+      <c r="J50" t="n">
+        <v>308</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1230763824.998149</v>
+        <v>1271725933.838464</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1612418896707047</v>
+        <v>0.1515917657689141</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0510131394709793</v>
+        <v>0.03771467410993853</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3630360566.089277</v>
+        <v>3489924687.899103</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09075913910898772</v>
+        <v>0.1385338459226155</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05630390742869724</v>
+        <v>0.04195462702736675</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>188</v>
+      </c>
+      <c r="J52" t="n">
+        <v>308</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2545266053.71518</v>
+        <v>2396198521.966634</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1375500674399677</v>
+        <v>0.1958149557547268</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02209858658005513</v>
+        <v>0.0270580170189524</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>306</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3840087296.732464</v>
+        <v>4854876597.76303</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1406035254283091</v>
+        <v>0.1487337050469145</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0473953040239422</v>
+        <v>0.05156450444640951</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>161</v>
+      </c>
+      <c r="J54" t="n">
+        <v>308</v>
+      </c>
+      <c r="K54" t="n">
+        <v>81.29950050697116</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3164064748.684186</v>
+        <v>3050678472.274188</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1909764534271339</v>
+        <v>0.1744673146547309</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02587529417031764</v>
+        <v>0.02011529858194627</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>142</v>
+      </c>
+      <c r="J55" t="n">
+        <v>306</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1138654398.32475</v>
+        <v>1404297025.978352</v>
       </c>
       <c r="F56" t="n">
-        <v>0.149155526566711</v>
+        <v>0.09959471274311897</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05395497855381774</v>
+        <v>0.04797692092150059</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4192122681.01695</v>
+        <v>3599890036.657705</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1472014937934397</v>
+        <v>0.1535485923282408</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01852248265173774</v>
+        <v>0.01894776046394922</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>127</v>
+      </c>
+      <c r="J57" t="n">
+        <v>307</v>
+      </c>
+      <c r="K57" t="n">
+        <v>55.73634919662695</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1574490942.640069</v>
+        <v>1701375138.445986</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1673316754760271</v>
+        <v>0.1254977482092214</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03326359499643198</v>
+        <v>0.02420719907094581</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4283251608.775588</v>
+        <v>4011628982.148432</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1125472594067532</v>
+        <v>0.1102065829830998</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04291668937177318</v>
+        <v>0.04761187237171937</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>149</v>
+      </c>
+      <c r="J59" t="n">
+        <v>307</v>
+      </c>
+      <c r="K59" t="n">
+        <v>64.52303647610005</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3364640284.651322</v>
+        <v>2373962692.618701</v>
       </c>
       <c r="F60" t="n">
-        <v>0.159097779666428</v>
+        <v>0.1465254965648979</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02375412081411152</v>
+        <v>0.02102970767500158</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>52</v>
+      </c>
+      <c r="J60" t="n">
+        <v>305</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2910979634.917968</v>
+        <v>2642207651.542297</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1092145499459485</v>
+        <v>0.1255867436971692</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0293365778594687</v>
+        <v>0.02231783071794175</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1553587827.118148</v>
+        <v>1677115629.935773</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1403833886699665</v>
+        <v>0.152980032200362</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04013593591228303</v>
+        <v>0.04447141014601244</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4483428337.353015</v>
+        <v>5578011884.294407</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07798276650798551</v>
+        <v>0.1026732185427558</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04696333869186151</v>
+        <v>0.0357401497480971</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>150</v>
+      </c>
+      <c r="J63" t="n">
+        <v>307</v>
+      </c>
+      <c r="K63" t="n">
+        <v>77.13304726595369</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4765612876.870291</v>
+        <v>4611765445.366656</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181160458078549</v>
+        <v>0.1542976102887076</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02687555663395251</v>
+        <v>0.03226194994210416</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>151</v>
+      </c>
+      <c r="J64" t="n">
+        <v>308</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4242374085.281681</v>
+        <v>5305895863.891816</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1293518603297218</v>
+        <v>0.1452096665022389</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02482127523622585</v>
+        <v>0.0300341005935813</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>244</v>
+      </c>
+      <c r="J65" t="n">
+        <v>308</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5387126871.151333</v>
+        <v>3499597509.865966</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1063609787657136</v>
+        <v>0.1535998494885526</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03470922058522005</v>
+        <v>0.04617421093180282</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>152</v>
+      </c>
+      <c r="J66" t="n">
+        <v>307</v>
+      </c>
+      <c r="K66" t="n">
+        <v>47.97196096817061</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2426396028.484363</v>
+        <v>2871035836.476064</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09869093523151212</v>
+        <v>0.08071674062515305</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04514380548538741</v>
+        <v>0.03289800734857027</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3800802528.832752</v>
+        <v>4332901435.063917</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1307014676369347</v>
+        <v>0.1179144955457834</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03155368595926644</v>
+        <v>0.04634639222474542</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>165</v>
+      </c>
+      <c r="J68" t="n">
+        <v>308</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1975751857.47636</v>
+        <v>2137955931.753887</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1372899860712724</v>
+        <v>0.1407144405413559</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05541848473202424</v>
+        <v>0.05126483388703608</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2630703628.07917</v>
+        <v>2315305156.148341</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06614495645807339</v>
+        <v>0.1008047508800406</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03583542575413387</v>
+        <v>0.03742003065933665</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5617209398.156962</v>
+        <v>4276703406.675017</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1727208923452422</v>
+        <v>0.1638435678738362</v>
       </c>
       <c r="G71" t="n">
-        <v>0.021523175936303</v>
+        <v>0.03045327952948855</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>229</v>
+      </c>
+      <c r="J71" t="n">
+        <v>307</v>
+      </c>
+      <c r="K71" t="n">
+        <v>77.90475460155091</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1467773753.98638</v>
+        <v>1421196844.799426</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07239095964166026</v>
+        <v>0.08428332531964929</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03827230474746363</v>
+        <v>0.04919269239305051</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2385877204.403112</v>
+        <v>3530341914.304455</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07169656396350983</v>
+        <v>0.09923864880347416</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04430842067314553</v>
+        <v>0.04880336553873574</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>308</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3779560832.1299</v>
+        <v>2744704157.520311</v>
       </c>
       <c r="F74" t="n">
-        <v>0.118571228076223</v>
+        <v>0.1581329997598686</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03336562084453763</v>
+        <v>0.02224434909992104</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1583063959.389048</v>
+        <v>1968962693.590793</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1651130717466728</v>
+        <v>0.1032815734070528</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0348849304274687</v>
+        <v>0.03265391299696328</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4128393264.509689</v>
+        <v>4578883620.622829</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08662568008289172</v>
+        <v>0.1172278087236274</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02675706846959229</v>
+        <v>0.03182315920765919</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>145</v>
+      </c>
+      <c r="J76" t="n">
+        <v>307</v>
+      </c>
+      <c r="K76" t="n">
+        <v>76.15895131314099</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1978503285.72126</v>
+        <v>2006428882.566864</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1456708678999652</v>
+        <v>0.1161944053381374</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02809480921013592</v>
+        <v>0.03049357878314112</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4306620427.635706</v>
+        <v>3983839731.202765</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08387430306284929</v>
+        <v>0.1197696422857367</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04158202715690179</v>
+        <v>0.04995158446081438</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>152</v>
+      </c>
+      <c r="J78" t="n">
+        <v>308</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1366190905.528799</v>
+        <v>1699190479.787828</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1262371448270636</v>
+        <v>0.1214288674410604</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03856416500181082</v>
+        <v>0.02742054890444519</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5036656336.454346</v>
+        <v>5107115623.43022</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1062336180082584</v>
+        <v>0.08524764977338378</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02746397905119225</v>
+        <v>0.03338888115313094</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>150</v>
+      </c>
+      <c r="J80" t="n">
+        <v>308</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3664537940.423377</v>
+        <v>4370460474.857409</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1301422887254033</v>
+        <v>0.09156807978171667</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02234694320460088</v>
+        <v>0.02400027188779841</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>142</v>
+      </c>
+      <c r="J81" t="n">
+        <v>307</v>
+      </c>
+      <c r="K81" t="n">
+        <v>70.94667769656456</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5470190641.997501</v>
+        <v>5466337599.982684</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1501736923592249</v>
+        <v>0.1568269967258769</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02309862229452714</v>
+        <v>0.02496901946097773</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>224</v>
+      </c>
+      <c r="J82" t="n">
+        <v>308</v>
+      </c>
+      <c r="K82" t="n">
+        <v>78.67495091842667</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1767076816.899158</v>
+        <v>2339047402.163915</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1254885945201827</v>
+        <v>0.1094374785397492</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02853903741357914</v>
+        <v>0.03843017419556016</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1706534474.557866</v>
+        <v>1811706508.845367</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09007905793858693</v>
+        <v>0.1034064551457261</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03388867436449006</v>
+        <v>0.05227771305669369</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2725171062.391923</v>
+        <v>2778957117.558253</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1180250371104866</v>
+        <v>0.166908262627482</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04605005732492074</v>
+        <v>0.03788811090495937</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2352514104.158029</v>
+        <v>2170280896.461203</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1051508487627891</v>
+        <v>0.1249215101685398</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0267002637751478</v>
+        <v>0.02327679864108765</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1330026284.648749</v>
+        <v>1034332183.821446</v>
       </c>
       <c r="F87" t="n">
-        <v>0.144830425392355</v>
+        <v>0.1149552735041762</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04423624735681857</v>
+        <v>0.027039462578134</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2616674424.622699</v>
+        <v>2302242968.861718</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1425050278641222</v>
+        <v>0.1295759296814659</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03816071212237466</v>
+        <v>0.02417827318989732</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3081309214.60217</v>
+        <v>2116537637.641812</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1451841636824833</v>
+        <v>0.1419097259457344</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04077481701165944</v>
+        <v>0.04100833854009696</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1854342796.406422</v>
+        <v>1377383105.872339</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1018658649407873</v>
+        <v>0.09898512457557486</v>
       </c>
       <c r="G90" t="n">
-        <v>0.048091374588022</v>
+        <v>0.04465764419870161</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1272646397.455591</v>
+        <v>1866844443.730015</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1904722992789085</v>
+        <v>0.16703394216685</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05004704925090668</v>
+        <v>0.04583030707031613</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2947734110.018737</v>
+        <v>2963163258.178843</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08482450833132801</v>
+        <v>0.08383760001196515</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03043014375536101</v>
+        <v>0.03791946754586249</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4379952360.227444</v>
+        <v>3071155306.970474</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1126622455141227</v>
+        <v>0.1336152036595501</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05290918222125858</v>
+        <v>0.03435007824705347</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>138</v>
+      </c>
+      <c r="J93" t="n">
+        <v>307</v>
+      </c>
+      <c r="K93" t="n">
+        <v>39.72296294770914</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1983270039.430159</v>
+        <v>1555575184.928091</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1686657624769693</v>
+        <v>0.1599318957242165</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03350878772974739</v>
+        <v>0.04146930555277691</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2869838881.284777</v>
+        <v>2953031883.275099</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1072102803308515</v>
+        <v>0.1214446180002496</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0526644582582774</v>
+        <v>0.03785665582084406</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2108792070.870065</v>
+        <v>2286907148.008346</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1000181852342941</v>
+        <v>0.1241314325602395</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04695269198681647</v>
+        <v>0.03515327890130515</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5314161379.893325</v>
+        <v>4488908152.084907</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1547888517670554</v>
+        <v>0.1541397643729491</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02446632389028486</v>
+        <v>0.02806835555113497</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>155</v>
+      </c>
+      <c r="J97" t="n">
+        <v>308</v>
+      </c>
+      <c r="K97" t="n">
+        <v>80.49844429401888</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2717090762.130516</v>
+        <v>3154477957.677162</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08704448140084092</v>
+        <v>0.08757744825870679</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03193220470445501</v>
+        <v>0.0303524085051743</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>76</v>
+      </c>
+      <c r="J98" t="n">
+        <v>306</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2939118812.502474</v>
+        <v>2852307579.960243</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1212064885447146</v>
+        <v>0.1082471436397264</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0255286373356551</v>
+        <v>0.02649758772658163</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3449708816.520695</v>
+        <v>3677200886.913558</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1635609831666137</v>
+        <v>0.1706472698430879</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01712512413767888</v>
+        <v>0.02032645462366446</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>134</v>
+      </c>
+      <c r="J100" t="n">
+        <v>307</v>
+      </c>
+      <c r="K100" t="n">
+        <v>57.88384012359545</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2864235726.692033</v>
+        <v>3058417903.432782</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2030546553881412</v>
+        <v>0.1746759234700711</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04678484253165678</v>
+        <v>0.05005887300001486</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
